--- a/src/test/resources/testData/dataExcelSheet.xlsx
+++ b/src/test/resources/testData/dataExcelSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhgm\IdeaProjects\SeleniumWF\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\IdeaProjects\SeleniumFramework\TestFrameworkSelenium\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C862E20B-9B7D-4575-85B0-CFE6959DBB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE37140-EFAD-4831-B626-96EC8B110090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,15 +376,15 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -400,7 +400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -416,7 +416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -435,7 +435,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/dataExcelSheet.xlsx
+++ b/src/test/resources/testData/dataExcelSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\IdeaProjects\SeleniumFramework\TestFrameworkSelenium\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhgm\IdeaProjects\SeleniumWF\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE37140-EFAD-4831-B626-96EC8B110090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9BFCB8-A24E-4B24-8D07-A1D7140282EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>Norberto</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
@@ -373,55 +382,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -435,7 +489,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
